--- a/Planilha de Despesas.xlsx
+++ b/Planilha de Despesas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C38BF2-E062-45D5-8138-27E7BF06EF94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCFAC6-47FE-4850-8466-3C2CB4B48799}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4BDE5021-1195-4437-A50D-B44611F505CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{4BDE5021-1195-4437-A50D-B44611F505CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Atividade - Aba do Aux. e Apr." sheetId="2" r:id="rId1"/>
+    <sheet name="Atividade - Planilha de Gastos" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Planilha de Controle Mensal de Gastos</t>
   </si>
@@ -106,13 +107,77 @@
   </si>
   <si>
     <t>Dependentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faculdade </t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Inglês</t>
+  </si>
+  <si>
+    <t>Introdução</t>
+  </si>
+  <si>
+    <t>Funções e Fórmulas</t>
+  </si>
+  <si>
+    <t>Importar e Analisar</t>
+  </si>
+  <si>
+    <t>Formatar Dados</t>
+  </si>
+  <si>
+    <t>Solução de Problemas</t>
+  </si>
+  <si>
+    <t>Auxílio e Aprendizado do Excel</t>
+  </si>
+  <si>
+    <t>Colaborar</t>
+  </si>
+  <si>
+    <t>1°</t>
+  </si>
+  <si>
+    <t>2°</t>
+  </si>
+  <si>
+    <t>3°</t>
+  </si>
+  <si>
+    <t>A aba "Introdução" fornece informações básicas sobre o Excel, incluindo uma visão geral do software, seus recursos e funcionalidades. É um ponto de partida para quem está começando a utilizar o Excel e deseja entender seus conceitos fundamentais.</t>
+  </si>
+  <si>
+    <t>A aba "Colaborar" aborda recursos e dicas relacionados ao trabalho em equipe e compartilhamento de arquivos no Excel. Isso inclui orientações sobre como colaborar em documentos, usar recursos de compartilhamento e garantir a sincronização entre vários colaboradores.</t>
+  </si>
+  <si>
+    <t>Na aba "Funções e Fórmulas", você encontrará informações sobre as diferentes funções e fórmulas disponíveis no Excel. Isso inclui explicações sobre como usar funções matemáticas, lógicas, de texto e outras para realizar cálculos e análises complexas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A aba "Importar e Analisar" concentra-se em importar dados externos para o Excel, como dados de bancos de dados, arquivos CSV ou tabelas da web. Além disso, oferece orientações sobre como analisar e visualizar esses dados para obter insights relevantes.</t>
+  </si>
+  <si>
+    <t>A aba "Formatar Dados" aborda técnicas de formatação para tornar suas planilhas visualmente atraentes e fáceis de entender. Isso inclui dicas sobre formatação condicional, estilos de célula e outras opções de formatação.</t>
+  </si>
+  <si>
+    <t>A aba "Soluções de Problemas" ajuda a resolver questões e dificuldades comuns que os usuários podem enfrentar ao utilizar o Excel. Ela oferece soluções para erros, travamentos e outras situações problemáticas, permitindo uma resolução eficaz.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,16 +192,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,30 +265,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -199,6 +422,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1962</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="https://brazilsoutheast1-mediap.svc.ms/transform/thumbnail?provider=spo&amp;inputFormat=png&amp;cs=NWUzY2U2YzAtMmIxZi00Mjg1LThkNGItNzVlZTc4Nzg3MzQ2fFNQTw&amp;docid=https%3A%2F%2Ffatecspgov%2Esharepoint%2Ecom%2F%5Fapi%2Fv2%2E0%2Fdrives%2Fb%21Wb8NhFaPyk%2DPKca1uA9FApurDUoWYthNk3I%5F5TYIBAlCQ7yf82YcRIx7wDrJqbtP%2Fitems%2F01BCLPRF6PAZR6NQWTTBGILMGWOINMFD6R%3Ftempauth%3DeyJ0eXAiOiJKV1QiLCJhbGciOiJIUzI1NiJ9%2EeyJhdWQiOiIwMDAwMDAwMy0wMDAwLTBmZjEtY2UwMC0wMDAwMDAwMDAwMDAvZmF0ZWNzcGdvdi5zaGFyZXBvaW50LmNvbUBjZjcyZTJiZC03YTJiLTQ3ODMtYmRlYi0zOWQ1N2IwN2Y3NmYiLCJpc3MiOiIwMDAwMDAwMy0wMDAwLTBmZjEtY2UwMC0wMDAwMDAwMDAwMDAiLCJuYmYiOiIxNjkyMzkyNDAwIiwiZXhwIjoiMTY5MjQxNDAwMCIsImVuZHBvaW50dXJsIjoiRjF0RnFKYjlJRjRBcnBWT2h1WlNCQ2NnNEU1Wnpwa2diSWVkTlBoMEYyUT0iLCJlbmRwb2ludHVybExlbmd0aCI6IjE1OCIsImlzbG9vcGJhY2siOiJUcnVlIiwidmVyIjoiaGFzaGVkcHJvb2Z0b2tlbiIsInNpdGVpZCI6Ik9EUXdaR0ptTlRrdE9HWTFOaTAwWm1OaExUaG1Namt0WXpaaU5XSTRNR1kwTlRBeSIsImFwcF9kaXNwbGF5bmFtZSI6Ik1pY3Jvc29mdCBUZWFtcyBXZWIgQ2xpZW50IiwiZ2l2ZW5fbmFtZSI6IkdBQlJJRUwiLCJmYW1pbHlfbmFtZSI6IlNJTFZBIiwiYXBwaWQiOiI1ZTNjZTZjMC0yYjFmLTQyODUtOGQ0Yi03NWVlNzg3ODczNDYiLCJ0aWQiOiJjZjcyZTJiZC03YTJiLTQ3ODMtYmRlYi0zOWQ1N2IwN2Y3NmYiLCJ1cG4iOiJnYWJyaWVsLnNpbHZhNzYzQGZhdGVjLnNwLmdvdi5iciIsInB1aWQiOiIxMDAzMjAwMkMxMUQ3MDQ0IiwiY2FjaGVrZXkiOiIwaC5mfG1lbWJlcnNoaXB8MTAwMzIwMDJjMTFkNzA0NEBsaXZlLmNvbSIsInNjcCI6ImFsbGZpbGVzLndyaXRlIGdyb3VwLnJlYWQgYWxsc2l0ZXMud3JpdGUiLCJ0dCI6IjIiLCJpcGFkZHIiOiIyMC4xOTAuMTczLjI1In0%2ErdMD6v0Aglto6vOtAZjkdWqBkiVTIAjnz0sTafQcoxY%26version%3DPublished&amp;width=9999&amp;height=9999&amp;cb=63827877859">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25AA5061-191D-4C8F-A8FE-FB7875633FF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="6539891" y="2996596"/>
+          <a:ext cx="5934079" cy="721938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,220 +786,433 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5667F9DA-E2A8-4C5E-8C61-9CC961D90391}">
-  <dimension ref="C1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769CF736-18E9-493E-B0A6-ED3380F46006}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="15" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B3:L3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5667F9DA-E2A8-4C5E-8C61-9CC961D90391}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="14" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="3:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="C11" s="8">
+        <f>SUM(C5:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <f>SUM(D5:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <f>SUM(E5:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <f>SUM(F5:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f>SUM(G5:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" ref="H11:N11" si="0">SUM(H5:H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -722,12 +1224,13 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -739,12 +1242,13 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -756,12 +1260,13 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+    </row>
+    <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -773,12 +1278,13 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+    </row>
+    <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -790,12 +1296,13 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+    </row>
+    <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -807,44 +1314,83 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="3:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="C19" s="8">
+        <f>SUM(C13:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:N19" si="1">SUM(D13:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -856,13 +1402,158 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8">
+        <f>SUM(C21:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:N27" si="2">SUM(D21:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:G3"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="C20:O20"/>
+  <mergeCells count="6">
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B20:N20"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planilha de Despesas.xlsx
+++ b/Planilha de Despesas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DCFAC6-47FE-4850-8466-3C2CB4B48799}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466485EA-EF27-4DBB-8F05-B3C8A6209A4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{4BDE5021-1195-4437-A50D-B44611F505CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{4BDE5021-1195-4437-A50D-B44611F505CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividade - Aba do Aux. e Apr." sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Planilha de Controle Mensal de Gastos</t>
   </si>
@@ -167,15 +167,17 @@
   </si>
   <si>
     <t>A aba "Soluções de Problemas" ajuda a resolver questões e dificuldades comuns que os usuários podem enfrentar ao utilizar o Excel. Ela oferece soluções para erros, travamentos e outras situações problemáticas, permitindo uma resolução eficaz.</t>
+  </si>
+  <si>
+    <t>Situação</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -352,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,27 +364,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,20 +407,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,6 +423,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF58787"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -789,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769CF736-18E9-493E-B0A6-ED3380F46006}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,142 +814,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -953,10 +968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5667F9DA-E2A8-4C5E-8C61-9CC961D90391}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,250 +981,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="C6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="D6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="E6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="F6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="G6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="H6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="I6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="J6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="K6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="L6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="M6" s="20">
+        <v>10120</v>
+      </c>
+      <c r="N6" s="20">
+        <v>10120</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="22">
         <f>SUM(C5:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="D11" s="22">
         <f>SUM(D5:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="E11" s="22">
         <f>SUM(E5:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="F11" s="22">
         <f>SUM(F5:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="G11" s="22">
         <f>SUM(G5:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="H11" s="22">
         <f t="shared" ref="H11:N11" si="0">SUM(H5:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="I11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="J11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="K11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="L11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="M11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
+        <v>10120</v>
+      </c>
+      <c r="N11" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="23">
+        <f>C6-C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" ref="D12:N12" si="1">D6-D11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1"/>
@@ -1226,8 +1303,8 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1"/>
@@ -1244,8 +1321,8 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1"/>
@@ -1262,8 +1339,8 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="1"/>
@@ -1280,8 +1357,8 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="1"/>
@@ -1298,8 +1375,8 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1"/>
@@ -1319,75 +1396,77 @@
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="22">
         <f>SUM(C13:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="8">
-        <f t="shared" ref="D19:N19" si="1">SUM(D13:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="1"/>
+      <c r="D19" s="22">
+        <f>SUM(D13:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <f>SUM(E13:E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
+        <f>SUM(F13:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <f>SUM(G13:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <f>SUM(H13:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="22">
+        <f>SUM(I13:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <f>SUM(J13:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="22">
+        <f>SUM(K13:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="22">
+        <f>SUM(L13:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <f>SUM(M13:M18)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
+        <f>SUM(N13:N18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="1"/>
@@ -1404,8 +1483,8 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="1"/>
@@ -1422,8 +1501,8 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="1"/>
@@ -1440,8 +1519,8 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1"/>
@@ -1458,8 +1537,8 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1"/>
@@ -1476,8 +1555,8 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1"/>
@@ -1497,61 +1576,76 @@
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="22">
         <f>SUM(C21:C26)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="22">
         <f t="shared" ref="D27:N27" si="2">SUM(D21:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="4">
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B1:F3"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B20:N20"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A13:A18"/>
   </mergeCells>

--- a/Planilha de Despesas.xlsx
+++ b/Planilha de Despesas.xlsx
@@ -5,17 +5,69 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466485EA-EF27-4DBB-8F05-B3C8A6209A4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{132F5B8C-8415-49F1-8C5A-3D6E6B248541}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{4BDE5021-1195-4437-A50D-B44611F505CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{4BDE5021-1195-4437-A50D-B44611F505CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividade - Aba do Aux. e Apr." sheetId="2" r:id="rId1"/>
     <sheet name="Atividade - Planilha de Gastos" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Atividade - Planilha de Gastos'!$B$6:$B$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Atividade - Planilha de Gastos'!$C$5</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Atividade - Planilha de Gastos'!$G$6:$G$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Atividade - Planilha de Gastos'!$H$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Atividade - Planilha de Gastos'!$H$6:$H$28</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Atividade - Planilha de Gastos'!$I$5</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Atividade - Planilha de Gastos'!$I$6:$I$28</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Atividade - Planilha de Gastos'!$J$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Atividade - Planilha de Gastos'!$J$6:$J$28</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Atividade - Planilha de Gastos'!$K$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Atividade - Planilha de Gastos'!$K$6:$K$28</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Atividade - Planilha de Gastos'!$L$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Atividade - Planilha de Gastos'!$C$6:$C$28</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Atividade - Planilha de Gastos'!$L$6:$L$28</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Atividade - Planilha de Gastos'!$M$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Atividade - Planilha de Gastos'!$M$6:$M$28</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Atividade - Planilha de Gastos'!$N$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Atividade - Planilha de Gastos'!$N$6:$N$28</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Atividade - Planilha de Gastos'!$D$5</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Atividade - Planilha de Gastos'!#REF!</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Atividade - Planilha de Gastos'!$B$6:$B$28</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Atividade - Planilha de Gastos'!$C$5:$C$28</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Atividade - Planilha de Gastos'!$D$5:$D$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Atividade - Planilha de Gastos'!$D$6:$D$28</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Atividade - Planilha de Gastos'!$E$5:$E$28</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Atividade - Planilha de Gastos'!$F$5:$F$28</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Atividade - Planilha de Gastos'!$G$5:$G$28</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Atividade - Planilha de Gastos'!$H$5:$H$28</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Atividade - Planilha de Gastos'!$I$5:$I$28</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Atividade - Planilha de Gastos'!$J$5:$J$28</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Atividade - Planilha de Gastos'!$K$5:$K$28</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Atividade - Planilha de Gastos'!$L$5:$L$28</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Atividade - Planilha de Gastos'!$M$5:$M$28</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Atividade - Planilha de Gastos'!$N$5:$N$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Atividade - Planilha de Gastos'!$E$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Atividade - Planilha de Gastos'!$E$6:$E$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Atividade - Planilha de Gastos'!$F$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Atividade - Planilha de Gastos'!$F$6:$F$28</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Atividade - Planilha de Gastos'!$G$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,9 +122,6 @@
     <t>Renda Familiar</t>
   </si>
   <si>
-    <t>Sálarios</t>
-  </si>
-  <si>
     <t>Férias</t>
   </si>
   <si>
@@ -170,6 +219,9 @@
   </si>
   <si>
     <t>Situação</t>
+  </si>
+  <si>
+    <t>Salário:</t>
   </si>
 </sst>
 </file>
@@ -179,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +264,14 @@
     </font>
     <font>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -354,9 +414,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,7 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,6 +435,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -408,13 +472,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +881,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -844,11 +910,11 @@
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>31</v>
+      <c r="A3" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -862,11 +928,11 @@
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
+      <c r="A4" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -880,11 +946,11 @@
       <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>32</v>
+      <c r="A5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -898,11 +964,11 @@
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>33</v>
+      <c r="A6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -916,11 +982,11 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>34</v>
+      <c r="A7" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -934,11 +1000,11 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>35</v>
+      <c r="A8" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -968,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5667F9DA-E2A8-4C5E-8C61-9CC961D90391}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,643 +1070,772 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="F5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="J5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="K5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="L5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="M5" s="21">
+        <v>15000</v>
+      </c>
+      <c r="N5" s="21">
+        <v>15000</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="D6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="E6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="F6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="G6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="H6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="I6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="J6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="K6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="L6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="M6" s="20">
-        <v>10120</v>
-      </c>
-      <c r="N6" s="20">
-        <v>10120</v>
-      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20">
+        <v>900</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="22">
-        <f>SUM(C5:C10)</f>
-        <v>10120</v>
-      </c>
-      <c r="D11" s="22">
-        <f>SUM(D5:D10)</f>
-        <v>10120</v>
-      </c>
-      <c r="E11" s="22">
-        <f>SUM(E5:E10)</f>
-        <v>10120</v>
-      </c>
-      <c r="F11" s="22">
-        <f>SUM(F5:F10)</f>
-        <v>10120</v>
-      </c>
-      <c r="G11" s="22">
-        <f>SUM(G5:G10)</f>
-        <v>10120</v>
-      </c>
-      <c r="H11" s="22">
-        <f t="shared" ref="H11:N11" si="0">SUM(H5:H10)</f>
-        <v>10120</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="C11" s="8">
+        <f>C6+C8+C7+C9+C10</f>
+        <v>5100</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ref="D11:N11" si="0">D6+D8+D7+D9+D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>10120</v>
-      </c>
-      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>10120</v>
-      </c>
-      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>10120</v>
-      </c>
-      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <f t="shared" si="0"/>
-        <v>10120</v>
-      </c>
-      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
-        <v>10120</v>
-      </c>
-      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>10120</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="23">
-        <f>C6-C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <f t="shared" ref="D12:N12" si="1">D6-D11</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="9">
+        <f>C5-C11</f>
+        <v>9900</v>
+      </c>
+      <c r="D12" s="9">
+        <f>D5-D11</f>
+        <v>15000</v>
+      </c>
+      <c r="E12" s="9">
+        <f>E5-E11</f>
+        <v>15000</v>
+      </c>
+      <c r="F12" s="9">
+        <f>F5-F11</f>
+        <v>15000</v>
+      </c>
+      <c r="G12" s="9">
+        <f>G5-G11</f>
+        <v>15000</v>
+      </c>
+      <c r="H12" s="9">
+        <f>H5-H11</f>
+        <v>15000</v>
+      </c>
+      <c r="I12" s="9">
+        <f>I5-I11</f>
+        <v>15000</v>
+      </c>
+      <c r="J12" s="9">
+        <f>J5-J11</f>
+        <v>15000</v>
+      </c>
+      <c r="K12" s="9">
+        <f>K5-K11</f>
+        <v>15000</v>
+      </c>
+      <c r="L12" s="9">
+        <f>L5-L11</f>
+        <v>15000</v>
+      </c>
+      <c r="M12" s="9">
+        <f>M5-M11</f>
+        <v>15000</v>
+      </c>
+      <c r="N12" s="9">
+        <f>N5-N11</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="20">
+        <v>500</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="20">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20">
+        <v>90</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="20">
+        <v>75</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20">
+        <v>70</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="22">
-        <f>SUM(C13:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="22">
-        <f>SUM(D13:D18)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="22">
-        <f>SUM(E13:E18)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="22">
-        <f>SUM(F13:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
-        <f>SUM(G13:G18)</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
-        <f>SUM(H13:H18)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
-        <f>SUM(I13:I18)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <f>SUM(J13:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <f>SUM(K13:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
-        <f>SUM(L13:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="22">
-        <f>SUM(M13:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
-        <f>SUM(N13:N18)</f>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" ref="C19:N19" si="1">SUM(C13:C18)</f>
+        <v>1735</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="23">
+        <f>C5-C19</f>
+        <v>13265</v>
+      </c>
+      <c r="D20" s="23">
+        <f t="shared" ref="D20:N20" si="2">D5-D19</f>
+        <v>15000</v>
+      </c>
+      <c r="E20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="F20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="I20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="M20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
+      <c r="N20" s="23">
+        <f t="shared" si="2"/>
+        <v>15000</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="20">
+        <v>100</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="20">
+        <v>850</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="20">
+        <v>200</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="20">
+        <v>190</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="20">
+        <v>350</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="22">
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8">
         <f>SUM(C21:C26)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="22">
-        <f t="shared" ref="D27:N27" si="2">SUM(D21:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="22">
-        <f t="shared" si="2"/>
+        <v>1690</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:N27" si="3">SUM(D21:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="24">
+        <f>C5-C27</f>
+        <v>13310</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="25">
+        <f>C12+C20+C28</f>
+        <v>36475</v>
+      </c>
+      <c r="D31" s="25">
+        <f>D12+D20+D28</f>
+        <v>30000</v>
+      </c>
+      <c r="E31" s="25">
+        <f>E12+E20+E28</f>
+        <v>30000</v>
+      </c>
+      <c r="F31" s="25">
+        <f>F12+F20+F28</f>
+        <v>30000</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" ref="G31:N31" si="4">G12+G20+G28</f>
+        <v>30000</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="I31" s="25">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="J31" s="25">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="L31" s="25">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
